--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2377,28 +2377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1129.948866734342</v>
+        <v>1384.382088925837</v>
       </c>
       <c r="AB2" t="n">
-        <v>1546.045889291703</v>
+        <v>1894.172648695663</v>
       </c>
       <c r="AC2" t="n">
-        <v>1398.493439506736</v>
+        <v>1713.395469592157</v>
       </c>
       <c r="AD2" t="n">
-        <v>1129948.866734342</v>
+        <v>1384382.088925837</v>
       </c>
       <c r="AE2" t="n">
-        <v>1546045.889291703</v>
+        <v>1894172.648695663</v>
       </c>
       <c r="AF2" t="n">
         <v>3.140238267508486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.97685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1398493.439506736</v>
+        <v>1713395.469592158</v>
       </c>
     </row>
     <row r="3">
@@ -2483,28 +2483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>714.0622723815602</v>
+        <v>890.2556552478304</v>
       </c>
       <c r="AB3" t="n">
-        <v>977.0115032765948</v>
+        <v>1218.08706281768</v>
       </c>
       <c r="AC3" t="n">
-        <v>883.7668966481331</v>
+        <v>1101.83454313829</v>
       </c>
       <c r="AD3" t="n">
-        <v>714062.2723815602</v>
+        <v>890255.6552478304</v>
       </c>
       <c r="AE3" t="n">
-        <v>977011.5032765948</v>
+        <v>1218087.06281768</v>
       </c>
       <c r="AF3" t="n">
         <v>4.405175114220892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>883766.8966481331</v>
+        <v>1101834.54313829</v>
       </c>
     </row>
     <row r="4">
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.3155121872079</v>
+        <v>776.8645327050772</v>
       </c>
       <c r="AB4" t="n">
-        <v>848.7430501635135</v>
+        <v>1062.940326491414</v>
       </c>
       <c r="AC4" t="n">
-        <v>767.7402046742595</v>
+        <v>961.4947935771908</v>
       </c>
       <c r="AD4" t="n">
-        <v>620315.5121872079</v>
+        <v>776864.5327050772</v>
       </c>
       <c r="AE4" t="n">
-        <v>848743.0501635135</v>
+        <v>1062940.326491414</v>
       </c>
       <c r="AF4" t="n">
         <v>4.897426481455671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.04861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>767740.2046742595</v>
+        <v>961494.7935771907</v>
       </c>
     </row>
     <row r="5">
@@ -2695,28 +2695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>566.3423200845285</v>
+        <v>722.823009764836</v>
       </c>
       <c r="AB5" t="n">
-        <v>774.8945475994437</v>
+        <v>988.9983306608486</v>
       </c>
       <c r="AC5" t="n">
-        <v>700.9396995478803</v>
+        <v>894.6097180504515</v>
       </c>
       <c r="AD5" t="n">
-        <v>566342.3200845285</v>
+        <v>722823.0097648361</v>
       </c>
       <c r="AE5" t="n">
-        <v>774894.5475994437</v>
+        <v>988998.3306608486</v>
       </c>
       <c r="AF5" t="n">
         <v>5.16714768515539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.37037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>700939.6995478803</v>
+        <v>894609.7180504515</v>
       </c>
     </row>
     <row r="6">
@@ -2801,28 +2801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>533.553070382391</v>
+        <v>680.2794042111309</v>
       </c>
       <c r="AB6" t="n">
-        <v>730.0308495973753</v>
+        <v>930.7882926508568</v>
       </c>
       <c r="AC6" t="n">
-        <v>660.3577299165337</v>
+        <v>841.9551643698318</v>
       </c>
       <c r="AD6" t="n">
-        <v>533553.070382391</v>
+        <v>680279.4042111309</v>
       </c>
       <c r="AE6" t="n">
-        <v>730030.8495973754</v>
+        <v>930788.2926508568</v>
       </c>
       <c r="AF6" t="n">
         <v>5.327570100427771e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.45601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>660357.7299165337</v>
+        <v>841955.1643698318</v>
       </c>
     </row>
     <row r="7">
@@ -2907,28 +2907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.401062359914</v>
+        <v>681.2288814151392</v>
       </c>
       <c r="AB7" t="n">
-        <v>731.1911096317882</v>
+        <v>932.0874092493588</v>
       </c>
       <c r="AC7" t="n">
-        <v>661.4072563616974</v>
+        <v>843.1302951034943</v>
       </c>
       <c r="AD7" t="n">
-        <v>534401.0623599141</v>
+        <v>681228.8814151392</v>
       </c>
       <c r="AE7" t="n">
-        <v>731191.1096317882</v>
+        <v>932087.4092493588</v>
       </c>
       <c r="AF7" t="n">
         <v>5.319704927066995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.50231481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>661407.2563616973</v>
+        <v>843130.2951034943</v>
       </c>
     </row>
   </sheetData>
@@ -3204,28 +3204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>893.0396950171117</v>
+        <v>1115.623994632037</v>
       </c>
       <c r="AB2" t="n">
-        <v>1221.896308853176</v>
+        <v>1526.445967312574</v>
       </c>
       <c r="AC2" t="n">
-        <v>1105.280240078469</v>
+        <v>1380.764106572632</v>
       </c>
       <c r="AD2" t="n">
-        <v>893039.6950171117</v>
+        <v>1115623.994632037</v>
       </c>
       <c r="AE2" t="n">
-        <v>1221896.308853176</v>
+        <v>1526445.967312574</v>
       </c>
       <c r="AF2" t="n">
         <v>3.9363307685682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.63425925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>1105280.240078469</v>
+        <v>1380764.106572632</v>
       </c>
     </row>
     <row r="3">
@@ -3310,28 +3310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.3733078483068</v>
+        <v>779.8411581736593</v>
       </c>
       <c r="AB3" t="n">
-        <v>841.9809081523616</v>
+        <v>1067.013076776976</v>
       </c>
       <c r="AC3" t="n">
-        <v>761.623432005926</v>
+        <v>965.1788462916396</v>
       </c>
       <c r="AD3" t="n">
-        <v>615373.3078483068</v>
+        <v>779841.1581736594</v>
       </c>
       <c r="AE3" t="n">
-        <v>841980.9081523616</v>
+        <v>1067013.076776976</v>
       </c>
       <c r="AF3" t="n">
         <v>5.18152236304309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>761623.432005926</v>
+        <v>965178.8462916396</v>
       </c>
     </row>
     <row r="4">
@@ -3416,28 +3416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.6633661276137</v>
+        <v>680.8042835715311</v>
       </c>
       <c r="AB4" t="n">
-        <v>732.9182493356667</v>
+        <v>931.5064557477992</v>
       </c>
       <c r="AC4" t="n">
-        <v>662.9695602762937</v>
+        <v>842.6047869887502</v>
       </c>
       <c r="AD4" t="n">
-        <v>535663.3661276137</v>
+        <v>680804.2835715311</v>
       </c>
       <c r="AE4" t="n">
-        <v>732918.2493356667</v>
+        <v>931506.4557477992</v>
       </c>
       <c r="AF4" t="n">
         <v>5.658262185856223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.34722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>662969.5602762937</v>
+        <v>842604.7869887502</v>
       </c>
     </row>
     <row r="5">
@@ -3522,28 +3522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>508.9394716874451</v>
+        <v>654.1477089390669</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.3534379876132</v>
+        <v>895.0337543305873</v>
       </c>
       <c r="AC5" t="n">
-        <v>629.8944432042632</v>
+        <v>809.612989005039</v>
       </c>
       <c r="AD5" t="n">
-        <v>508939.4716874451</v>
+        <v>654147.7089390669</v>
       </c>
       <c r="AE5" t="n">
-        <v>696353.4379876133</v>
+        <v>895033.7543305872</v>
       </c>
       <c r="AF5" t="n">
         <v>5.808124377278964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.57175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>629894.4432042632</v>
+        <v>809612.989005039</v>
       </c>
     </row>
   </sheetData>
@@ -3819,28 +3819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.0895799434438</v>
+        <v>641.7099679713637</v>
       </c>
       <c r="AB2" t="n">
-        <v>673.2986727387109</v>
+        <v>878.0158884241707</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.03999239315</v>
+        <v>794.219284336006</v>
       </c>
       <c r="AD2" t="n">
-        <v>492089.5799434438</v>
+        <v>641709.9679713637</v>
       </c>
       <c r="AE2" t="n">
-        <v>673298.6727387109</v>
+        <v>878015.8884241707</v>
       </c>
       <c r="AF2" t="n">
         <v>7.453261926654783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.16435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>609039.99239315</v>
+        <v>794219.284336006</v>
       </c>
     </row>
     <row r="3">
@@ -3925,28 +3925,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.9230687688616</v>
+        <v>620.5092913780006</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.337718349079</v>
+        <v>849.0081874012908</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.8430308435096</v>
+        <v>767.9800375861859</v>
       </c>
       <c r="AD3" t="n">
-        <v>470923.0687688616</v>
+        <v>620509.2913780006</v>
       </c>
       <c r="AE3" t="n">
-        <v>644337.7183490789</v>
+        <v>849008.1874012908</v>
       </c>
       <c r="AF3" t="n">
         <v>7.687703754513325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.18055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>582843.0308435096</v>
+        <v>767980.0375861858</v>
       </c>
     </row>
   </sheetData>
@@ -4222,28 +4222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.1498042229139</v>
+        <v>790.2503058264512</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.8338800473832</v>
+        <v>1081.25533181471</v>
       </c>
       <c r="AC2" t="n">
-        <v>755.15850623237</v>
+        <v>978.0618404977029</v>
       </c>
       <c r="AD2" t="n">
-        <v>610149.8042229139</v>
+        <v>790250.3058264512</v>
       </c>
       <c r="AE2" t="n">
-        <v>834833.8800473833</v>
+        <v>1081255.33181471</v>
       </c>
       <c r="AF2" t="n">
         <v>5.813694444387631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.70601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>755158.5062323699</v>
+        <v>978061.8404977028</v>
       </c>
     </row>
     <row r="3">
@@ -4328,28 +4328,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.7842157417028</v>
+        <v>622.9554478611817</v>
       </c>
       <c r="AB3" t="n">
-        <v>657.830174680421</v>
+        <v>852.355126618387</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.0477860793698</v>
+        <v>771.0075496218608</v>
       </c>
       <c r="AD3" t="n">
-        <v>480784.2157417028</v>
+        <v>622955.4478611817</v>
       </c>
       <c r="AE3" t="n">
-        <v>657830.174680421</v>
+        <v>852355.1266183869</v>
       </c>
       <c r="AF3" t="n">
         <v>6.867387329187179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.23148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>595047.7860793697</v>
+        <v>771007.5496218608</v>
       </c>
     </row>
     <row r="4">
@@ -4434,28 +4434,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.9849327257374</v>
+        <v>624.1561648452163</v>
       </c>
       <c r="AB4" t="n">
-        <v>659.4730486298718</v>
+        <v>853.9980005678376</v>
       </c>
       <c r="AC4" t="n">
-        <v>596.5338664448731</v>
+        <v>772.4936299873642</v>
       </c>
       <c r="AD4" t="n">
-        <v>481984.9327257374</v>
+        <v>624156.1648452163</v>
       </c>
       <c r="AE4" t="n">
-        <v>659473.0486298718</v>
+        <v>853998.0005678376</v>
       </c>
       <c r="AF4" t="n">
         <v>6.865952513344046e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>596533.866444873</v>
+        <v>772493.6299873642</v>
       </c>
     </row>
   </sheetData>
@@ -4731,28 +4731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.6201948629695</v>
+        <v>623.8571636942006</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.4503364416382</v>
+        <v>853.588894002018</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.5175324023226</v>
+        <v>772.1235679780019</v>
       </c>
       <c r="AD2" t="n">
-        <v>466620.1948629695</v>
+        <v>623857.1636942006</v>
       </c>
       <c r="AE2" t="n">
-        <v>638450.3364416382</v>
+        <v>853588.894002018</v>
       </c>
       <c r="AF2" t="n">
         <v>8.403145934660549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.67361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>577517.5324023225</v>
+        <v>772123.5679780019</v>
       </c>
     </row>
   </sheetData>
@@ -5028,28 +5028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>952.6595662959777</v>
+        <v>1175.863441142508</v>
       </c>
       <c r="AB2" t="n">
-        <v>1303.470846980008</v>
+        <v>1608.868235605019</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.069418777059</v>
+        <v>1455.320109259625</v>
       </c>
       <c r="AD2" t="n">
-        <v>952659.5662959777</v>
+        <v>1175863.441142508</v>
       </c>
       <c r="AE2" t="n">
-        <v>1303470.846980008</v>
+        <v>1608868.235605018</v>
       </c>
       <c r="AF2" t="n">
         <v>3.716137048972833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.09259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179069.418777059</v>
+        <v>1455320.109259625</v>
       </c>
     </row>
     <row r="3">
@@ -5134,28 +5134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>634.608199419637</v>
+        <v>809.3005851609572</v>
       </c>
       <c r="AB3" t="n">
-        <v>868.2989353837817</v>
+        <v>1107.32076443919</v>
       </c>
       <c r="AC3" t="n">
-        <v>785.4297036559626</v>
+        <v>1001.639624815567</v>
       </c>
       <c r="AD3" t="n">
-        <v>634608.199419637</v>
+        <v>809300.5851609572</v>
       </c>
       <c r="AE3" t="n">
-        <v>868298.9353837817</v>
+        <v>1107320.76443919</v>
       </c>
       <c r="AF3" t="n">
         <v>4.967736061297834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.73842592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>785429.7036559626</v>
+        <v>1001639.624815567</v>
       </c>
     </row>
     <row r="4">
@@ -5240,28 +5240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>551.4135868637243</v>
+        <v>706.7222806261717</v>
       </c>
       <c r="AB4" t="n">
-        <v>754.4683961975119</v>
+        <v>966.9686027392901</v>
       </c>
       <c r="AC4" t="n">
-        <v>682.4629913674654</v>
+        <v>874.682476442809</v>
       </c>
       <c r="AD4" t="n">
-        <v>551413.5868637243</v>
+        <v>706722.2806261717</v>
       </c>
       <c r="AE4" t="n">
-        <v>754468.3961975119</v>
+        <v>966968.6027392901</v>
       </c>
       <c r="AF4" t="n">
         <v>5.451203102268818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>682462.9913674654</v>
+        <v>874682.4764428091</v>
       </c>
     </row>
     <row r="5">
@@ -5346,28 +5346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>514.9498469611316</v>
+        <v>660.5837774435331</v>
       </c>
       <c r="AB5" t="n">
-        <v>704.577098596114</v>
+        <v>903.8398671977005</v>
       </c>
       <c r="AC5" t="n">
-        <v>637.3332491862687</v>
+        <v>817.5786588195723</v>
       </c>
       <c r="AD5" t="n">
-        <v>514949.8469611316</v>
+        <v>660583.7774435331</v>
       </c>
       <c r="AE5" t="n">
-        <v>704577.098596114</v>
+        <v>903839.8671977005</v>
       </c>
       <c r="AF5" t="n">
         <v>5.677950447629872e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.51388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>637333.2491862688</v>
+        <v>817578.6588195723</v>
       </c>
     </row>
     <row r="6">
@@ -5452,28 +5452,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>514.9013499121041</v>
+        <v>660.4337951680205</v>
       </c>
       <c r="AB6" t="n">
-        <v>704.510742794096</v>
+        <v>903.6346548315934</v>
       </c>
       <c r="AC6" t="n">
-        <v>637.2732262888644</v>
+        <v>817.3930316336688</v>
       </c>
       <c r="AD6" t="n">
-        <v>514901.3499121041</v>
+        <v>660433.7951680205</v>
       </c>
       <c r="AE6" t="n">
-        <v>704510.742794096</v>
+        <v>903634.6548315934</v>
       </c>
       <c r="AF6" t="n">
         <v>5.688520406896382e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.45601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>637273.2262888644</v>
+        <v>817393.0316336688</v>
       </c>
     </row>
   </sheetData>
@@ -5749,28 +5749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.4351746925299</v>
+        <v>634.7781743912814</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.301916032588</v>
+        <v>868.5315026387518</v>
       </c>
       <c r="AC2" t="n">
-        <v>581.001522642838</v>
+        <v>785.6400750185286</v>
       </c>
       <c r="AD2" t="n">
-        <v>469435.17469253</v>
+        <v>634778.1743912813</v>
       </c>
       <c r="AE2" t="n">
-        <v>642301.916032588</v>
+        <v>868531.5026387519</v>
       </c>
       <c r="AF2" t="n">
         <v>8.838744454583903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.98148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>581001.5226428381</v>
+        <v>785640.0750185286</v>
       </c>
     </row>
   </sheetData>
@@ -6046,28 +6046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>744.4226203737149</v>
+        <v>936.0900108190907</v>
       </c>
       <c r="AB2" t="n">
-        <v>1018.551870803484</v>
+        <v>1280.799650179335</v>
       </c>
       <c r="AC2" t="n">
-        <v>921.342709800528</v>
+        <v>1158.561929179818</v>
       </c>
       <c r="AD2" t="n">
-        <v>744422.6203737149</v>
+        <v>936090.0108190908</v>
       </c>
       <c r="AE2" t="n">
-        <v>1018551.870803484</v>
+        <v>1280799.650179335</v>
       </c>
       <c r="AF2" t="n">
         <v>4.731973771106337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.4675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>921342.709800528</v>
+        <v>1158561.929179818</v>
       </c>
     </row>
     <row r="3">
@@ -6152,28 +6152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.9368837239484</v>
+        <v>692.2504990349519</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.3972205283757</v>
+        <v>947.1676727162389</v>
       </c>
       <c r="AC3" t="n">
-        <v>667.021064744646</v>
+        <v>856.7713193903779</v>
       </c>
       <c r="AD3" t="n">
-        <v>538936.8837239484</v>
+        <v>692250.4990349519</v>
       </c>
       <c r="AE3" t="n">
-        <v>737397.2205283757</v>
+        <v>947167.6727162389</v>
       </c>
       <c r="AF3" t="n">
         <v>5.949776560983613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.38888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>667021.064744646</v>
+        <v>856771.319390378</v>
       </c>
     </row>
     <row r="4">
@@ -6258,28 +6258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.1313197318828</v>
+        <v>642.47808943181</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.2510506080235</v>
+        <v>879.0668660934803</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.378669637742</v>
+        <v>795.1699581716133</v>
       </c>
       <c r="AD4" t="n">
-        <v>489131.3197318828</v>
+        <v>642478.08943181</v>
       </c>
       <c r="AE4" t="n">
-        <v>669251.0506080235</v>
+        <v>879066.8660934803</v>
       </c>
       <c r="AF4" t="n">
         <v>6.281332566971664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.7337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>605378.669637742</v>
+        <v>795169.9581716133</v>
       </c>
     </row>
   </sheetData>
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>844.8692187787483</v>
+        <v>1047.474798073073</v>
       </c>
       <c r="AB2" t="n">
-        <v>1155.98733813242</v>
+        <v>1433.201230050237</v>
       </c>
       <c r="AC2" t="n">
-        <v>1045.66152901948</v>
+        <v>1296.418516164802</v>
       </c>
       <c r="AD2" t="n">
-        <v>844869.2187787483</v>
+        <v>1047474.798073073</v>
       </c>
       <c r="AE2" t="n">
-        <v>1155987.33813242</v>
+        <v>1433201.230050237</v>
       </c>
       <c r="AF2" t="n">
         <v>4.177669387157212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.18750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1045661.52901948</v>
+        <v>1296418.516164802</v>
       </c>
     </row>
     <row r="3">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.8085195834566</v>
+        <v>750.8428915329849</v>
       </c>
       <c r="AB3" t="n">
-        <v>802.8973046588751</v>
+        <v>1027.33636904597</v>
       </c>
       <c r="AC3" t="n">
-        <v>726.2699127756759</v>
+        <v>929.2888278598721</v>
       </c>
       <c r="AD3" t="n">
-        <v>586808.5195834566</v>
+        <v>750842.8915329849</v>
       </c>
       <c r="AE3" t="n">
-        <v>802897.3046588751</v>
+        <v>1027336.36904597</v>
       </c>
       <c r="AF3" t="n">
         <v>5.412451517190409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.56944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>726269.912775676</v>
+        <v>929288.827859872</v>
       </c>
     </row>
     <row r="4">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.3627767719304</v>
+        <v>663.7118928692479</v>
       </c>
       <c r="AB4" t="n">
-        <v>696.9326226791082</v>
+        <v>908.1198927258766</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.4183513216929</v>
+        <v>821.4502047183927</v>
       </c>
       <c r="AD4" t="n">
-        <v>509362.7767719304</v>
+        <v>663711.8928692479</v>
       </c>
       <c r="AE4" t="n">
-        <v>696932.6226791083</v>
+        <v>908119.8927258766</v>
       </c>
       <c r="AF4" t="n">
         <v>5.891561603658644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.91898148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>630418.3513216928</v>
+        <v>821450.2047183927</v>
       </c>
     </row>
     <row r="5">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>503.064144090007</v>
+        <v>647.8305005914561</v>
       </c>
       <c r="AB5" t="n">
-        <v>688.3145555676385</v>
+        <v>886.3902711738234</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.6227804398083</v>
+        <v>801.794427749552</v>
       </c>
       <c r="AD5" t="n">
-        <v>503064.144090007</v>
+        <v>647830.5005914562</v>
       </c>
       <c r="AE5" t="n">
-        <v>688314.5555676385</v>
+        <v>886390.2711738234</v>
       </c>
       <c r="AF5" t="n">
         <v>5.949280205938192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>622622.7804398083</v>
+        <v>801794.4277495521</v>
       </c>
     </row>
   </sheetData>
@@ -7170,28 +7170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1071.861548555473</v>
+        <v>1315.796772329486</v>
       </c>
       <c r="AB2" t="n">
-        <v>1466.568257927758</v>
+        <v>1800.331192757916</v>
       </c>
       <c r="AC2" t="n">
-        <v>1326.601041732609</v>
+        <v>1628.510110501799</v>
       </c>
       <c r="AD2" t="n">
-        <v>1071861.548555473</v>
+        <v>1315796.772329486</v>
       </c>
       <c r="AE2" t="n">
-        <v>1466568.257927758</v>
+        <v>1800331.192757916</v>
       </c>
       <c r="AF2" t="n">
         <v>3.31636303880153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.32175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1326601.04173261</v>
+        <v>1628510.110501799</v>
       </c>
     </row>
     <row r="3">
@@ -7276,28 +7276,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.5694923340041</v>
+        <v>859.2663564971048</v>
       </c>
       <c r="AB3" t="n">
-        <v>935.2899363690155</v>
+        <v>1175.686137115564</v>
       </c>
       <c r="AC3" t="n">
-        <v>846.0271775296263</v>
+        <v>1063.480302275111</v>
       </c>
       <c r="AD3" t="n">
-        <v>683569.492334004</v>
+        <v>859266.3564971047</v>
       </c>
       <c r="AE3" t="n">
-        <v>935289.9363690156</v>
+        <v>1175686.137115564</v>
       </c>
       <c r="AF3" t="n">
         <v>4.581024961550517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.97685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>846027.1775296263</v>
+        <v>1063480.302275111</v>
       </c>
     </row>
     <row r="4">
@@ -7382,28 +7382,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>593.9108996473728</v>
+        <v>750.116259275712</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.6150943972199</v>
+        <v>1026.342158734817</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.0602503003964</v>
+        <v>928.3895035854321</v>
       </c>
       <c r="AD4" t="n">
-        <v>593910.8996473729</v>
+        <v>750116.259275712</v>
       </c>
       <c r="AE4" t="n">
-        <v>812615.0943972198</v>
+        <v>1026342.158734817</v>
       </c>
       <c r="AF4" t="n">
         <v>5.069584559293394e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.60879629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>735060.2503003965</v>
+        <v>928389.5035854321</v>
       </c>
     </row>
     <row r="5">
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.8295395217189</v>
+        <v>696.9665683124963</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.986835688966</v>
+        <v>953.6204067600675</v>
       </c>
       <c r="AC5" t="n">
-        <v>669.3635306688572</v>
+        <v>862.608213553533</v>
       </c>
       <c r="AD5" t="n">
-        <v>540829.5395217189</v>
+        <v>696966.5683124963</v>
       </c>
       <c r="AE5" t="n">
-        <v>739986.8356889661</v>
+        <v>953620.4067600674</v>
       </c>
       <c r="AF5" t="n">
         <v>5.34245250124613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.98842592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>669363.5306688572</v>
+        <v>862608.213553533</v>
       </c>
     </row>
     <row r="6">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>526.1176109356546</v>
+        <v>672.4586503607372</v>
       </c>
       <c r="AB6" t="n">
-        <v>719.857325953031</v>
+        <v>920.087592205439</v>
       </c>
       <c r="AC6" t="n">
-        <v>651.1551530901754</v>
+        <v>832.2757237563973</v>
       </c>
       <c r="AD6" t="n">
-        <v>526117.6109356546</v>
+        <v>672458.6503607372</v>
       </c>
       <c r="AE6" t="n">
-        <v>719857.3259530311</v>
+        <v>920087.592205439</v>
       </c>
       <c r="AF6" t="n">
         <v>5.447529501724125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.40972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>651155.1530901755</v>
+        <v>832275.7237563973</v>
       </c>
     </row>
     <row r="7">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>527.265750172159</v>
+        <v>673.6067895972417</v>
       </c>
       <c r="AB7" t="n">
-        <v>721.4282607087447</v>
+        <v>921.6585269611526</v>
       </c>
       <c r="AC7" t="n">
-        <v>652.5761600376244</v>
+        <v>833.6967307038464</v>
       </c>
       <c r="AD7" t="n">
-        <v>527265.7501721589</v>
+        <v>673606.7895972417</v>
       </c>
       <c r="AE7" t="n">
-        <v>721428.2607087446</v>
+        <v>921658.5269611526</v>
       </c>
       <c r="AF7" t="n">
         <v>5.447391060353272e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.40972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>652576.1600376244</v>
+        <v>833696.7307038463</v>
       </c>
     </row>
   </sheetData>
@@ -7997,28 +7997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.2675318204521</v>
+        <v>831.1084641965865</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.7247248155654</v>
+        <v>1137.15926663146</v>
       </c>
       <c r="AC2" t="n">
-        <v>804.8106458156611</v>
+        <v>1028.630382237207</v>
       </c>
       <c r="AD2" t="n">
-        <v>650267.5318204521</v>
+        <v>831108.4641965865</v>
       </c>
       <c r="AE2" t="n">
-        <v>889724.7248155654</v>
+        <v>1137159.26663146</v>
       </c>
       <c r="AF2" t="n">
         <v>5.411140292791756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.9212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>804810.6458156612</v>
+        <v>1028630.382237207</v>
       </c>
     </row>
     <row r="3">
@@ -8103,28 +8103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.653365746396</v>
+        <v>634.3821757767826</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.7018252298981</v>
+        <v>867.9896798641689</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.5001071728973</v>
+        <v>785.1499630490988</v>
       </c>
       <c r="AD3" t="n">
-        <v>491653.365746396</v>
+        <v>634382.1757767826</v>
       </c>
       <c r="AE3" t="n">
-        <v>672701.8252298981</v>
+        <v>867989.6798641689</v>
       </c>
       <c r="AF3" t="n">
         <v>6.593365630259416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.30092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>608500.1071728973</v>
+        <v>785149.9630490988</v>
       </c>
     </row>
     <row r="4">
@@ -8209,28 +8209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.5816630766037</v>
+        <v>630.3104731069902</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.1307420062442</v>
+        <v>862.4185966405151</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.4607203130445</v>
+        <v>780.110576189246</v>
       </c>
       <c r="AD4" t="n">
-        <v>487581.6630766037</v>
+        <v>630310.4731069902</v>
       </c>
       <c r="AE4" t="n">
-        <v>667130.7420062441</v>
+        <v>862418.5966405151</v>
       </c>
       <c r="AF4" t="n">
         <v>6.654116479717608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.02314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>603460.7203130445</v>
+        <v>780110.576189246</v>
       </c>
     </row>
   </sheetData>
@@ -8506,28 +8506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.1659576713849</v>
+        <v>689.8803397118954</v>
       </c>
       <c r="AB2" t="n">
-        <v>725.3964525573102</v>
+        <v>943.9247161663834</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.1656332255551</v>
+        <v>853.8378660621227</v>
       </c>
       <c r="AD2" t="n">
-        <v>530165.9576713849</v>
+        <v>689880.3397118954</v>
       </c>
       <c r="AE2" t="n">
-        <v>725396.4525573102</v>
+        <v>943924.7161663834</v>
       </c>
       <c r="AF2" t="n">
         <v>6.834592749897825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>656165.6332255551</v>
+        <v>853837.8660621226</v>
       </c>
     </row>
     <row r="3">
@@ -8612,28 +8612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.0273017333333</v>
+        <v>618.4080702129014</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.3756021388436</v>
+        <v>846.1332039038666</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.2590534435142</v>
+        <v>765.379438478691</v>
       </c>
       <c r="AD3" t="n">
-        <v>468027.3017333333</v>
+        <v>618408.0702129015</v>
       </c>
       <c r="AE3" t="n">
-        <v>640375.6021388436</v>
+        <v>846133.2039038666</v>
       </c>
       <c r="AF3" t="n">
         <v>7.379366329985584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.77546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>579259.0534435142</v>
+        <v>765379.438478691</v>
       </c>
     </row>
   </sheetData>
@@ -14898,28 +14898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.9133617992741</v>
+        <v>622.0464770618017</v>
       </c>
       <c r="AB2" t="n">
-        <v>634.7467280268434</v>
+        <v>851.1114326697134</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.1673911765887</v>
+        <v>769.8825520781136</v>
       </c>
       <c r="AD2" t="n">
-        <v>463913.3617992741</v>
+        <v>622046.4770618017</v>
       </c>
       <c r="AE2" t="n">
-        <v>634746.7280268434</v>
+        <v>851111.4326697134</v>
       </c>
       <c r="AF2" t="n">
         <v>8.008109116990336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.85185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>574167.3911765887</v>
+        <v>769882.5520781135</v>
       </c>
     </row>
     <row r="3">
@@ -15004,28 +15004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.9207416608198</v>
+        <v>623.0538569233473</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.1250695958731</v>
+        <v>852.4897742387432</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.4141857607848</v>
+        <v>771.1293466623096</v>
       </c>
       <c r="AD3" t="n">
-        <v>464920.7416608199</v>
+        <v>623053.8569233473</v>
       </c>
       <c r="AE3" t="n">
-        <v>636125.0695958731</v>
+        <v>852489.7742387431</v>
       </c>
       <c r="AF3" t="n">
         <v>8.021112156342559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>575414.1857607848</v>
+        <v>771129.3466623096</v>
       </c>
     </row>
   </sheetData>
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.5340824704305</v>
+        <v>664.6350254167545</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.5386165893154</v>
+        <v>909.382963403109</v>
       </c>
       <c r="AC2" t="n">
-        <v>608.3524749359071</v>
+        <v>822.5927297029209</v>
       </c>
       <c r="AD2" t="n">
-        <v>491534.0824704305</v>
+        <v>664635.0254167545</v>
       </c>
       <c r="AE2" t="n">
-        <v>672538.6165893155</v>
+        <v>909382.963403109</v>
       </c>
       <c r="AF2" t="n">
         <v>9.290846909171998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>608352.4749359072</v>
+        <v>822592.7297029209</v>
       </c>
     </row>
   </sheetData>
@@ -15598,28 +15598,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>788.2901254713756</v>
+        <v>990.2850990891559</v>
       </c>
       <c r="AB2" t="n">
-        <v>1078.573326575842</v>
+        <v>1354.95176086899</v>
       </c>
       <c r="AC2" t="n">
-        <v>975.6358020746138</v>
+        <v>1225.637066498393</v>
       </c>
       <c r="AD2" t="n">
-        <v>788290.1254713756</v>
+        <v>990285.0990891559</v>
       </c>
       <c r="AE2" t="n">
-        <v>1078573.326575842</v>
+        <v>1354951.76086899</v>
       </c>
       <c r="AF2" t="n">
         <v>4.445107815822241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.77546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>975635.8020746139</v>
+        <v>1225637.066498393</v>
       </c>
     </row>
     <row r="3">
@@ -15704,28 +15704,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>556.6838217626199</v>
+        <v>720.1628891927506</v>
       </c>
       <c r="AB3" t="n">
-        <v>761.6793640925353</v>
+        <v>985.3586363378843</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.9857546072446</v>
+        <v>891.3173910453278</v>
       </c>
       <c r="AD3" t="n">
-        <v>556683.8217626199</v>
+        <v>720162.8891927507</v>
       </c>
       <c r="AE3" t="n">
-        <v>761679.3640925352</v>
+        <v>985358.6363378842</v>
       </c>
       <c r="AF3" t="n">
         <v>5.681382385375791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.89814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>688985.7546072446</v>
+        <v>891317.3910453278</v>
       </c>
     </row>
     <row r="4">
@@ -15810,28 +15810,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.5420810776304</v>
+        <v>651.400713315544</v>
       </c>
       <c r="AB4" t="n">
-        <v>680.7590253378781</v>
+        <v>891.2751937295892</v>
       </c>
       <c r="AC4" t="n">
-        <v>615.7883394109232</v>
+        <v>806.2131401526274</v>
       </c>
       <c r="AD4" t="n">
-        <v>497542.0810776304</v>
+        <v>651400.713315544</v>
       </c>
       <c r="AE4" t="n">
-        <v>680759.0253378781</v>
+        <v>891275.1937295892</v>
       </c>
       <c r="AF4" t="n">
         <v>6.092586567725077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.74537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>615788.3394109232</v>
+        <v>806213.1401526274</v>
       </c>
     </row>
     <row r="5">
@@ -15916,28 +15916,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.8250204351961</v>
+        <v>641.131548318454</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.7779113324166</v>
+        <v>877.2244691369855</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.9008615491408</v>
+        <v>793.5033969948259</v>
       </c>
       <c r="AD5" t="n">
-        <v>496825.0204351961</v>
+        <v>641131.5483184539</v>
       </c>
       <c r="AE5" t="n">
-        <v>679777.9113324166</v>
+        <v>877224.4691369855</v>
       </c>
       <c r="AF5" t="n">
         <v>6.108558702759207e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.66435185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>614900.8615491408</v>
+        <v>793503.3969948259</v>
       </c>
     </row>
   </sheetData>
@@ -16213,28 +16213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.153730380672</v>
+        <v>1237.791455992929</v>
       </c>
       <c r="AB2" t="n">
-        <v>1373.927434042873</v>
+        <v>1693.60087759456</v>
       </c>
       <c r="AC2" t="n">
-        <v>1242.801728057086</v>
+        <v>1531.965986820695</v>
       </c>
       <c r="AD2" t="n">
-        <v>1004153.730380672</v>
+        <v>1237791.455992929</v>
       </c>
       <c r="AE2" t="n">
-        <v>1373927.434042873</v>
+        <v>1693600.87759456</v>
       </c>
       <c r="AF2" t="n">
         <v>3.51399855278814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.6087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1242801.728057086</v>
+        <v>1531965.986820695</v>
       </c>
     </row>
     <row r="3">
@@ -16319,28 +16319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>663.9913959975913</v>
+        <v>839.109663625604</v>
       </c>
       <c r="AB3" t="n">
-        <v>908.502321236884</v>
+        <v>1148.106860678248</v>
       </c>
       <c r="AC3" t="n">
-        <v>821.7961347890513</v>
+        <v>1038.533153273215</v>
       </c>
       <c r="AD3" t="n">
-        <v>663991.3959975913</v>
+        <v>839109.663625604</v>
       </c>
       <c r="AE3" t="n">
-        <v>908502.321236884</v>
+        <v>1148106.860678248</v>
       </c>
       <c r="AF3" t="n">
         <v>4.767916619017594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.35185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>821796.1347890513</v>
+        <v>1038533.153273215</v>
       </c>
     </row>
     <row r="4">
@@ -16425,28 +16425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>578.2015447167701</v>
+        <v>733.8813201776436</v>
       </c>
       <c r="AB4" t="n">
-        <v>791.1208619333422</v>
+        <v>1004.128798825876</v>
       </c>
       <c r="AC4" t="n">
-        <v>715.6173972155268</v>
+        <v>908.2961555695541</v>
       </c>
       <c r="AD4" t="n">
-        <v>578201.5447167701</v>
+        <v>733881.3201776436</v>
       </c>
       <c r="AE4" t="n">
-        <v>791120.8619333422</v>
+        <v>1004128.798825876</v>
       </c>
       <c r="AF4" t="n">
         <v>5.247156123680104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.21527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>715617.3972155268</v>
+        <v>908296.1555695541</v>
       </c>
     </row>
     <row r="5">
@@ -16531,28 +16531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.2983079668614</v>
+        <v>672.3432398612601</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.1045636029187</v>
+        <v>919.9296824685026</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.378794725758</v>
+        <v>832.1328847031265</v>
       </c>
       <c r="AD5" t="n">
-        <v>526298.3079668614</v>
+        <v>672343.2398612602</v>
       </c>
       <c r="AE5" t="n">
-        <v>720104.5636029186</v>
+        <v>919929.6824685027</v>
       </c>
       <c r="AF5" t="n">
         <v>5.516418827362641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>651378.794725758</v>
+        <v>832132.8847031265</v>
       </c>
     </row>
     <row r="6">
@@ -16637,28 +16637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.1380114970747</v>
+        <v>667.0814581649884</v>
       </c>
       <c r="AB6" t="n">
-        <v>713.0440183167433</v>
+        <v>912.7302806182381</v>
       </c>
       <c r="AC6" t="n">
-        <v>644.9920979721577</v>
+        <v>825.6205836610271</v>
       </c>
       <c r="AD6" t="n">
-        <v>521138.0114970747</v>
+        <v>667081.4581649883</v>
       </c>
       <c r="AE6" t="n">
-        <v>713044.0183167433</v>
+        <v>912730.2806182381</v>
       </c>
       <c r="AF6" t="n">
         <v>5.56014041193327e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.45601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>644992.0979721576</v>
+        <v>825620.5836610271</v>
       </c>
     </row>
   </sheetData>
@@ -16934,28 +16934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.4676488566101</v>
+        <v>723.9892201426052</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.2822162141567</v>
+        <v>990.5939911492832</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.4896678597136</v>
+        <v>896.0530909413935</v>
       </c>
       <c r="AD2" t="n">
-        <v>534467.6488566102</v>
+        <v>723989.2201426051</v>
       </c>
       <c r="AE2" t="n">
-        <v>731282.2162141567</v>
+        <v>990593.9911492831</v>
       </c>
       <c r="AF2" t="n">
         <v>9.575448241283835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>661489.6678597135</v>
+        <v>896053.0909413935</v>
       </c>
     </row>
   </sheetData>
@@ -17231,28 +17231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.4480378477073</v>
+        <v>739.2883286917028</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.1439276576227</v>
+        <v>1011.526906415192</v>
       </c>
       <c r="AC2" t="n">
-        <v>704.7835247373489</v>
+        <v>914.9881981538551</v>
       </c>
       <c r="AD2" t="n">
-        <v>569448.0378477073</v>
+        <v>739288.3286917028</v>
       </c>
       <c r="AE2" t="n">
-        <v>779143.9276576227</v>
+        <v>1011526.906415192</v>
       </c>
       <c r="AF2" t="n">
         <v>6.289165601692354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.44444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>704783.5247373489</v>
+        <v>914988.1981538552</v>
       </c>
     </row>
     <row r="3">
@@ -17337,28 +17337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.2422920884882</v>
+        <v>625.1963672114547</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.8792261287902</v>
+        <v>855.4212513358146</v>
       </c>
       <c r="AC3" t="n">
-        <v>586.9511034947714</v>
+        <v>773.7810476995902</v>
       </c>
       <c r="AD3" t="n">
-        <v>474242.2920884882</v>
+        <v>625196.3672114547</v>
       </c>
       <c r="AE3" t="n">
-        <v>648879.2261287902</v>
+        <v>855421.2513358146</v>
       </c>
       <c r="AF3" t="n">
         <v>7.112388129196884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>586951.1034947714</v>
+        <v>773781.0476995902</v>
       </c>
     </row>
   </sheetData>
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>700.752117459042</v>
+        <v>882.2288086846592</v>
       </c>
       <c r="AB2" t="n">
-        <v>958.7999621090128</v>
+        <v>1207.104377230471</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.2934394095265</v>
+        <v>1091.900029649228</v>
       </c>
       <c r="AD2" t="n">
-        <v>700752.117459042</v>
+        <v>882228.8086846592</v>
       </c>
       <c r="AE2" t="n">
-        <v>958799.9621090128</v>
+        <v>1207104.377230471</v>
       </c>
       <c r="AF2" t="n">
         <v>5.058381016507535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>867293.4394095265</v>
+        <v>1091900.029649228</v>
       </c>
     </row>
     <row r="3">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>509.3886958141642</v>
+        <v>662.2336975813384</v>
       </c>
       <c r="AB3" t="n">
-        <v>696.9680862561602</v>
+        <v>906.0973607195856</v>
       </c>
       <c r="AC3" t="n">
-        <v>630.4504303047243</v>
+        <v>819.6207003281405</v>
       </c>
       <c r="AD3" t="n">
-        <v>509388.6958141642</v>
+        <v>662233.6975813385</v>
       </c>
       <c r="AE3" t="n">
-        <v>696968.0862561602</v>
+        <v>906097.3607195856</v>
       </c>
       <c r="AF3" t="n">
         <v>6.268653164448443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.76388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>630450.4303047243</v>
+        <v>819620.7003281405</v>
       </c>
     </row>
     <row r="4">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.5500124730662</v>
+        <v>637.3608488214597</v>
       </c>
       <c r="AB4" t="n">
-        <v>662.9827039034991</v>
+        <v>872.0652317336762</v>
       </c>
       <c r="AC4" t="n">
-        <v>599.7085651450171</v>
+        <v>788.8365499682536</v>
       </c>
       <c r="AD4" t="n">
-        <v>484550.0124730662</v>
+        <v>637360.8488214597</v>
       </c>
       <c r="AE4" t="n">
-        <v>662982.7039034991</v>
+        <v>872065.2317336763</v>
       </c>
       <c r="AF4" t="n">
         <v>6.447452836036024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.90740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>599708.5651450171</v>
+        <v>788836.5499682536</v>
       </c>
     </row>
   </sheetData>
